--- a/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
@@ -3246,12 +3246,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7834,12 +7834,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1096</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -7849,12 +7849,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -8290,97 +8290,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1081</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1129</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>1109</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -8781,12 +8781,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9658,12 +9658,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -9673,12 +9673,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10114,97 +10114,97 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1084</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>1156</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en País Vasco</t>
+          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en Andalucia</t>
+          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>137580</t>
+          <t>155314</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>134013</t>
+          <t>151729</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>140237</t>
+          <t>158074</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>133012</t>
+          <t>163689</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>129434</t>
+          <t>160295</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>136155</t>
+          <t>166308</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>270592</t>
+          <t>319003</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>265760</t>
+          <t>314275</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>274610</t>
+          <t>323227</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>94,06%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8978</t>
+          <t>9501</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6794</t>
+          <t>7212</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11884</t>
+          <t>12870</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10728</t>
+          <t>10507</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8002</t>
+          <t>8112</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13912</t>
+          <t>13792</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>19706</t>
+          <t>20008</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>16264</t>
+          <t>16145</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24335</t>
+          <t>24630</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2249</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>931</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4154</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4914</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7569</t>
+          <t>6924</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74563</t>
+          <t>84700</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71567</t>
+          <t>81573</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76901</t>
+          <t>86994</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>102710</t>
+          <t>117342</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100110</t>
+          <t>114397</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>104615</t>
+          <t>119658</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>177273</t>
+          <t>202042</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>173363</t>
+          <t>197643</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>180403</t>
+          <t>205102</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,96%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>93,88%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7247</t>
+          <t>7398</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5071</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10046</t>
+          <t>10507</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6233</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>4954</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8707</t>
+          <t>9754</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>13480</t>
+          <t>14428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>10728</t>
+          <t>11494</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>17303</t>
+          <t>18744</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -1417,22 +1417,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>784</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>208</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>2069</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,22 +1452,22 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>538</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>152133</t>
+          <t>145548</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>148646</t>
+          <t>142201</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>154891</t>
+          <t>148124</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,67 +1682,67 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58535</t>
+          <t>56515</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56148</t>
+          <t>54592</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>60098</t>
+          <t>58147</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
+          <t>94,74%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>202063</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>198376</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>205358</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>92,46%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>90,77%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
           <t>93,96%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>1198</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>210668</t>
-        </is>
-      </c>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>206448</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>214106</t>
-        </is>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>92,24%</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>90,39%</t>
-        </is>
-      </c>
-      <c r="W12" s="2" t="inlineStr">
-        <is>
-          <t>93,74%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9548</t>
+          <t>8802</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7043</t>
+          <t>6375</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12916</t>
+          <t>11816</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6850</t>
+          <t>5497</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>14108</t>
+          <t>12565</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>9716</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>18187</t>
+          <t>15829</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>2828</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>458</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3626</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2245</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5588</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>163135</t>
+          <t>163947</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>159391</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>165975</t>
+          <t>166321</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>167498</t>
+          <t>176003</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>163702</t>
+          <t>172647</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>170325</t>
+          <t>178594</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>330633</t>
+          <t>339951</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>325687</t>
+          <t>335615</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>334905</t>
+          <t>343638</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
+          <t>93,52%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
           <t>92,33%</t>
         </is>
       </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>90,94%</t>
-        </is>
-      </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>94,54%</t>
         </is>
       </c>
     </row>
@@ -2216,32 +2216,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11149</t>
+          <t>9469</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8548</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14879</t>
+          <t>12110</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,32 +2251,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12146</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9462</t>
+          <t>7785</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15578</t>
+          <t>13151</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,32 +2286,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>23294</t>
+          <t>19513</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>19213</t>
+          <t>15927</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>27844</t>
+          <t>23223</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>671</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>6436</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2559,32 +2559,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>73240</t>
+          <t>71302</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>71131</t>
+          <t>69007</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>75145</t>
+          <t>73273</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,32 +2594,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>122907</t>
+          <t>115255</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>119688</t>
+          <t>112303</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>125495</t>
+          <t>117421</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>196147</t>
+          <t>186556</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>192502</t>
+          <t>182947</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>199268</t>
+          <t>189522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>94,05%</t>
         </is>
       </c>
     </row>
@@ -2672,32 +2672,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4936</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3190</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6954</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,32 +2707,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7825</t>
+          <t>6875</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5622</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10979</t>
+          <t>9863</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,32 +2742,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>12761</t>
+          <t>12387</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>10024</t>
+          <t>9497</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>16090</t>
+          <t>15685</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2785,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>693</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>237</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,32 +2855,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>3261</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5190</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>43579</t>
+          <t>47508</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41564</t>
+          <t>45283</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>45032</t>
+          <t>49006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,32 +3050,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>114392</t>
+          <t>113946</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>112254</t>
+          <t>110731</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>116251</t>
+          <t>116278</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,32 +3085,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>157971</t>
+          <t>161455</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>154901</t>
+          <t>157619</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>160394</t>
+          <t>164190</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3128,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3488</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4855</t>
+          <t>6468</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3330</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>6918</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>8343</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>7414</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>11131</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -3276,32 +3276,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>424</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,32 +3311,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>446</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3471,67 +3471,67 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>644230</t>
+          <t>668321</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>637809</t>
+          <t>661611</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>651050</t>
+          <t>674619</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
+          <t>93,51%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4109</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>742749</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>735276</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>748776</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
           <t>93,2%</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>4109</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>699054</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>691926</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>705176</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>92,53%</t>
-        </is>
-      </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3541,32 +3541,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1343283</t>
+          <t>1411070</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1333946</t>
+          <t>1401958</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1351903</t>
+          <t>1419700</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>93,5%</t>
         </is>
       </c>
     </row>
@@ -3584,32 +3584,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>45346</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>39520</t>
+          <t>38467</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>51685</t>
+          <t>50929</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>46346</t>
+          <t>44686</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>40261</t>
+          <t>39172</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>52334</t>
+          <t>51763</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,32 +3654,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>91692</t>
+          <t>89107</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>83998</t>
+          <t>81118</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>100312</t>
+          <t>97251</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8986</t>
+          <t>8665</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>6281</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12144</t>
+          <t>11347</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,32 +3732,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>10058</t>
+          <t>9496</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7699</t>
+          <t>7241</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>13323</t>
+          <t>12589</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,32 +3767,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>19044</t>
+          <t>18161</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>15593</t>
+          <t>14654</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>23644</t>
+          <t>22156</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -3810,17 +3810,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3845,17 +3845,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3880,17 +3880,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4174,12 +4174,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>302648</t>
+          <t>303113</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>330034</t>
+          <t>329661</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4189,12 +4189,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>245216</t>
+          <t>244396</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>264310</t>
+          <t>263476</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4224,12 +4224,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>82,78%</t>
+          <t>82,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>553616</t>
+          <t>554292</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>586096</t>
+          <t>586866</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4259,12 +4259,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>88,95%</t>
         </is>
       </c>
     </row>
@@ -4287,12 +4287,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24208</t>
+          <t>23925</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46267</t>
+          <t>46604</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4302,12 +4302,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25414</t>
+          <t>24648</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42700</t>
+          <t>41747</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4357,12 +4357,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>53794</t>
+          <t>53425</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>83961</t>
+          <t>82909</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6402</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22109</t>
+          <t>22547</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4415,12 +4415,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4435,12 +4435,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4291</t>
+          <t>4558</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12789</t>
+          <t>13704</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4450,12 +4450,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4470,12 +4470,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>13626</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32566</t>
+          <t>32302</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4485,12 +4485,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,9%</t>
         </is>
       </c>
     </row>
@@ -4630,12 +4630,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>277501</t>
+          <t>276763</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>299456</t>
+          <t>299814</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4645,12 +4645,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4665,12 +4665,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>206086</t>
+          <t>206933</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>226439</t>
+          <t>226125</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4680,12 +4680,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4700,12 +4700,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>491630</t>
+          <t>491984</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>520393</t>
+          <t>520483</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4715,12 +4715,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>89,81%</t>
         </is>
       </c>
     </row>
@@ -4743,12 +4743,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20445</t>
+          <t>19556</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42381</t>
+          <t>41024</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4758,12 +4758,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4778,12 +4778,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21842</t>
+          <t>21089</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39114</t>
+          <t>36957</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4813,12 +4813,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>45734</t>
+          <t>44790</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>71754</t>
+          <t>71241</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,29%</t>
         </is>
       </c>
     </row>
@@ -4856,12 +4856,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11022</t>
+          <t>10490</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4871,12 +4871,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5730</t>
+          <t>5897</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16206</t>
+          <t>16665</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4906,12 +4906,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4926,12 +4926,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8947</t>
+          <t>9161</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22944</t>
+          <t>22712</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4941,12 +4941,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -5086,12 +5086,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>395731</t>
+          <t>393950</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>464157</t>
+          <t>462612</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>83,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>72369</t>
+          <t>71725</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>86974</t>
+          <t>86592</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5136,12 +5136,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>473967</t>
+          <t>475628</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>553650</t>
+          <t>552276</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>96,88%</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6007</t>
+          <t>7834</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60416</t>
+          <t>62470</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5214,12 +5214,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5234,12 +5234,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6435</t>
+          <t>6677</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21183</t>
+          <t>20759</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13131</t>
+          <t>13748</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>73621</t>
+          <t>72614</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5284,12 +5284,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -5312,12 +5312,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>698</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20179</t>
+          <t>19933</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5347,12 +5347,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9499</t>
+          <t>8298</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5362,12 +5362,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5382,12 +5382,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25975</t>
+          <t>24941</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5397,12 +5397,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -5542,12 +5542,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>459084</t>
+          <t>458422</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>490604</t>
+          <t>491418</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5557,12 +5557,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>86,23%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>550866</t>
+          <t>550249</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>615798</t>
+          <t>615631</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5592,12 +5592,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5612,12 +5612,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1023737</t>
+          <t>1027046</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1109381</t>
+          <t>1109260</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5627,12 +5627,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,97%</t>
         </is>
       </c>
     </row>
@@ -5655,12 +5655,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34225</t>
+          <t>35270</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>65306</t>
+          <t>66795</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5670,12 +5670,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5690,12 +5690,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14308</t>
+          <t>14269</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65243</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5725,12 +5725,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>48407</t>
+          <t>48141</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>117561</t>
+          <t>117270</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5740,12 +5740,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -5768,12 +5768,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14896</t>
+          <t>15075</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5783,12 +5783,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5803,12 +5803,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>23401</t>
+          <t>24175</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5818,12 +5818,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5838,12 +5838,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>10138</t>
+          <t>10398</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>31628</t>
+          <t>30771</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -5998,12 +5998,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>169525</t>
+          <t>168835</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>191636</t>
+          <t>191220</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6033,12 +6033,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>349362</t>
+          <t>348050</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>388760</t>
+          <t>388204</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>82,7%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>526800</t>
+          <t>526249</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>576309</t>
+          <t>575641</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>83,25%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,07%</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6111,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>12798</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>32236</t>
+          <t>31987</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6146,12 +6146,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26387</t>
+          <t>27006</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>61103</t>
+          <t>62106</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>43848</t>
+          <t>43668</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>84253</t>
+          <t>84945</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -6224,12 +6224,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3784</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16210</t>
+          <t>15740</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6239,12 +6239,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4323</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15624</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6274,12 +6274,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6294,12 +6294,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10727</t>
+          <t>10427</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>26970</t>
+          <t>27284</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6309,12 +6309,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -6454,12 +6454,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>131010</t>
+          <t>130837</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>156562</t>
+          <t>156737</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6469,12 +6469,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>80,96%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>418461</t>
+          <t>416901</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>446498</t>
+          <t>446350</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6504,12 +6504,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6524,12 +6524,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>558480</t>
+          <t>558095</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>596412</t>
+          <t>597988</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6539,12 +6539,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>85,98%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>92,07%</t>
         </is>
       </c>
     </row>
@@ -6567,12 +6567,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16988</t>
+          <t>17006</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6582,12 +6582,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6602,12 +6602,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>31325</t>
+          <t>30665</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>55837</t>
+          <t>55772</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6617,12 +6617,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6637,12 +6637,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>35301</t>
+          <t>35162</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>62995</t>
+          <t>63538</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6652,12 +6652,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,78%</t>
         </is>
       </c>
     </row>
@@ -6680,12 +6680,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>624</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25293</t>
+          <t>25416</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6715,12 +6715,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>5676</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>21654</t>
+          <t>22454</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6730,12 +6730,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6750,12 +6750,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>10969</t>
+          <t>10476</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>40355</t>
+          <t>39136</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,03%</t>
         </is>
       </c>
     </row>
@@ -6910,12 +6910,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1810457</t>
+          <t>1807955</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1920082</t>
+          <t>1922275</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6925,12 +6925,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6945,12 +6945,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1892232</t>
+          <t>1897226</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2010022</t>
+          <t>2006940</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>86,49%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6980,12 +6980,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3714841</t>
+          <t>3721263</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3886721</t>
+          <t>3878454</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6995,12 +6995,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,38%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,07%</t>
         </is>
       </c>
     </row>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>105603</t>
+          <t>112901</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>199060</t>
+          <t>204616</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7038,12 +7038,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7058,12 +7058,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>144363</t>
+          <t>146609</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>236123</t>
+          <t>233219</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>290967</t>
+          <t>296440</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>423061</t>
+          <t>425638</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7108,12 +7108,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -7136,12 +7136,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>31400</t>
+          <t>31775</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>68888</t>
+          <t>70006</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7151,12 +7151,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7171,12 +7171,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>41217</t>
+          <t>38465</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>78188</t>
+          <t>71424</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7186,12 +7186,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7206,12 +7206,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>78993</t>
+          <t>81646</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>135531</t>
+          <t>131876</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,1%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>155314</t>
+          <t>341447</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>151729</t>
+          <t>326269</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>158074</t>
+          <t>354112</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>163689</t>
+          <t>278537</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>160295</t>
+          <t>267947</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>166308</t>
+          <t>288108</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>89,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>319003</t>
+          <t>619984</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>314275</t>
+          <t>600823</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>323227</t>
+          <t>636014</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>88,98%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9501</t>
+          <t>37920</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7212</t>
+          <t>26885</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12870</t>
+          <t>51311</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10507</t>
+          <t>35618</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8112</t>
+          <t>26230</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13792</t>
+          <t>44731</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>20008</t>
+          <t>73538</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>16145</t>
+          <t>58393</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24630</t>
+          <t>90601</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>12,68%</t>
         </is>
       </c>
     </row>
@@ -956,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2684</t>
+          <t>12794</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>6496</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4537</t>
+          <t>23589</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>8465</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>931</t>
+          <t>4848</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>14385</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>21259</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>13278</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6924</t>
+          <t>34011</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>392161</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>392161</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>392161</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1104,22 +1104,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>450</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>322620</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>322620</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>322620</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1139,22 +1139,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>846</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>714780</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>714780</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>714780</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>294</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84700</t>
+          <t>306273</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81573</t>
+          <t>292291</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86994</t>
+          <t>317569</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>89,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>324</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>117342</t>
+          <t>239462</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>114397</t>
+          <t>227896</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>119658</t>
+          <t>248336</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>618</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>202042</t>
+          <t>545735</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>197643</t>
+          <t>530185</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>205102</t>
+          <t>560469</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>89,59%</t>
         </is>
       </c>
     </row>
@@ -1299,107 +1299,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7398</t>
+          <t>32591</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>21909</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10507</t>
+          <t>45168</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7030</t>
+          <t>31388</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4954</t>
+          <t>23596</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9754</t>
+          <t>41237</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>14428</t>
+          <t>63979</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>49626</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>18744</t>
+          <t>78649</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>12,57%</t>
         </is>
       </c>
     </row>
@@ -1412,107 +1412,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>4895</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2069</t>
+          <t>10871</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>11003</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>6458</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2682</t>
+          <t>17744</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>15897</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1045</t>
+          <t>10022</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>24589</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1525,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>333</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343759</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343759</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>343759</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1560,22 +1560,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>281852</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>281852</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>281852</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1595,22 +1595,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>718</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>625611</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>625611</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>625611</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1642,107 +1642,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>145548</t>
+          <t>215690</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>142201</t>
+          <t>201831</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>148124</t>
+          <t>227691</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>78,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>141</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56515</t>
+          <t>93544</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>54592</t>
+          <t>82182</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>58147</t>
+          <t>99437</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>74,04%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>89,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>359</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>202063</t>
+          <t>309235</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>198376</t>
+          <t>293885</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>205358</t>
+          <t>323800</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>83,76%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>87,71%</t>
         </is>
       </c>
     </row>
@@ -1755,107 +1755,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8802</t>
+          <t>33454</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6375</t>
+          <t>23242</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11816</t>
+          <t>46992</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3763</t>
+          <t>12769</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2263</t>
+          <t>7428</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5497</t>
+          <t>24044</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12565</t>
+          <t>46223</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9716</t>
+          <t>33329</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15829</t>
+          <t>61405</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -1868,107 +1868,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>9044</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>17391</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>9071</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>13731</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>8193</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>22707</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -1981,22 +1981,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>258189</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>258189</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>258189</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2016,22 +2016,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>162</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110999</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110999</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>110999</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2051,22 +2051,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>421</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>369189</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>369189</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>369189</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2098,107 +2098,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>163947</t>
+          <t>537787</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>516889</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>166321</t>
+          <t>555261</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>85,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>587</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>176003</t>
+          <t>427992</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>172647</t>
+          <t>411408</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>178594</t>
+          <t>439268</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>339951</t>
+          <t>965780</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>335615</t>
+          <t>941481</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>343638</t>
+          <t>987464</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>86,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>90,24%</t>
         </is>
       </c>
     </row>
@@ -2211,107 +2211,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9469</t>
+          <t>58023</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>41896</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12110</t>
+          <t>76538</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10044</t>
+          <t>45606</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7785</t>
+          <t>35373</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13151</t>
+          <t>59833</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>19513</t>
+          <t>103629</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15927</t>
+          <t>83007</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>23223</t>
+          <t>124497</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>11,38%</t>
         </is>
       </c>
     </row>
@@ -2324,107 +2324,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>9447</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>4524</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>18048</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>15369</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>9770</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>24433</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>24816</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>2621</t>
+          <t>17473</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>36848</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -2437,22 +2437,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>559</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>605257</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>605257</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>605257</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2472,22 +2472,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>668</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488967</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488967</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>488967</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2507,22 +2507,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1094225</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1094225</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1094225</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2554,107 +2554,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>204</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>71302</t>
+          <t>222984</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>69007</t>
+          <t>208735</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73273</t>
+          <t>232396</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>88,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>492</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>115255</t>
+          <t>341542</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>112303</t>
+          <t>325871</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>117421</t>
+          <t>352689</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,56%</t>
+          <t>80,89%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>696</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>186556</t>
+          <t>564526</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>182947</t>
+          <t>547103</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>189522</t>
+          <t>581235</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>86,03%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>83,37%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>88,57%</t>
         </is>
       </c>
     </row>
@@ -2667,107 +2667,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>21241</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3604</t>
+          <t>13154</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7599</t>
+          <t>32754</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6875</t>
+          <t>50382</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>40344</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>9863</t>
+          <t>64480</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>12387</t>
+          <t>71623</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>9497</t>
+          <t>57008</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>15685</t>
+          <t>86904</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -2780,107 +2780,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>9116</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>16718</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>10952</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>6958</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>17664</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>20069</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>12487</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>4214</t>
+          <t>29027</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -2893,22 +2893,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,22 +2928,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>577</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>402877</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>402877</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>402877</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,22 +2963,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>809</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>656218</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>656218</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>656218</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,107 +3010,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>47508</t>
+          <t>151273</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>45283</t>
+          <t>135167</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>49006</t>
+          <t>159983</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>81,93%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>619</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>113946</t>
+          <t>482535</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>110731</t>
+          <t>464252</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>116278</t>
+          <t>496460</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>689</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>161455</t>
+          <t>633807</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>157619</t>
+          <t>610155</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>164190</t>
+          <t>652046</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>89,35%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>86,02%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>91,92%</t>
         </is>
       </c>
     </row>
@@ -3123,107 +3123,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>6316</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2240</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5963</t>
+          <t>17492</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6468</t>
+          <t>48888</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>36061</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>64160</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>10205</t>
+          <t>55203</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7414</t>
+          <t>40472</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>74579</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -3236,107 +3236,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7395</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>626</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>22727</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>12939</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>23918</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>20333</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>10535</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2295</t>
+          <t>37372</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -3349,22 +3349,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>164983</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>164983</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>164983</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3384,22 +3384,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>544361</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>544361</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>544361</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3419,22 +3419,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>770</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>709344</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>709344</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>709344</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3466,107 +3466,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3717</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>668321</t>
+          <t>1775455</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>661611</t>
+          <t>1742094</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>674619</t>
+          <t>1806317</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>742749</t>
+          <t>1863612</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>735276</t>
+          <t>1832569</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>748776</t>
+          <t>1889530</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7826</t>
+          <t>4177</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1411070</t>
+          <t>3639067</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1401958</t>
+          <t>3591063</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1419700</t>
+          <t>3681387</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>88,3%</t>
         </is>
       </c>
     </row>
@@ -3579,107 +3579,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>44420</t>
+          <t>189545</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>38467</t>
+          <t>161960</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>50929</t>
+          <t>219167</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>305</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44686</t>
+          <t>224650</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>39172</t>
+          <t>197849</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>51763</t>
+          <t>250463</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>485</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>89107</t>
+          <t>414195</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>81118</t>
+          <t>377142</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>97251</t>
+          <t>458870</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>11,01%</t>
         </is>
       </c>
     </row>
@@ -3692,107 +3692,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8665</t>
+          <t>52691</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6281</t>
+          <t>37719</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11347</t>
+          <t>71171</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>9496</t>
+          <t>63414</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7241</t>
+          <t>50514</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>12589</t>
+          <t>78797</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>129</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>18161</t>
+          <t>116105</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>14654</t>
+          <t>96703</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>22156</t>
+          <t>140192</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -3805,22 +3805,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2017691</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2017691</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2017691</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3840,22 +3840,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2936</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2151676</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2151676</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2151676</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3875,22 +3875,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4169367</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4169367</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4169367</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3979,7 +3979,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
+          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4164,107 +4164,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>502</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>317006</t>
+          <t>287706</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>303113</t>
+          <t>282266</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>329661</t>
+          <t>290900</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>447</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>254948</t>
+          <t>263368</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>244396</t>
+          <t>256821</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>263476</t>
+          <t>268550</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,06%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>82,5%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>949</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>571954</t>
+          <t>551074</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>554292</t>
+          <t>542665</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>586866</t>
+          <t>557839</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>97,5%</t>
         </is>
       </c>
     </row>
@@ -4277,107 +4277,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34095</t>
+          <t>7466</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23925</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46604</t>
+          <t>12906</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33234</t>
+          <t>12556</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24648</t>
+          <t>7588</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41747</t>
+          <t>18865</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>67329</t>
+          <t>20022</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>53425</t>
+          <t>13269</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>82909</t>
+          <t>28315</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -4390,107 +4390,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6202</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22547</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8060</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4558</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13704</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>20479</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>12787</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32302</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>0,64%</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4503,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>363520</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>363520</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>363520</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4538,22 +4538,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>296242</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>296242</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>296242</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4573,22 +4573,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>659762</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>659762</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>659762</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4620,107 +4620,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>289886</t>
+          <t>184746</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>276763</t>
+          <t>178750</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>299814</t>
+          <t>188816</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>382</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>217718</t>
+          <t>225509</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>206933</t>
+          <t>220435</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>226125</t>
+          <t>228438</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,02%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>88,3%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>507604</t>
+          <t>410256</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>491984</t>
+          <t>402615</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>520483</t>
+          <t>415606</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>96,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>84,89%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -4733,107 +4733,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28918</t>
+          <t>10690</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19556</t>
+          <t>6620</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41024</t>
+          <t>16686</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28284</t>
+          <t>6269</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21089</t>
+          <t>3340</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36957</t>
+          <t>11343</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>57202</t>
+          <t>16959</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>44790</t>
+          <t>11609</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>71241</t>
+          <t>24600</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -4846,107 +4846,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10490</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10086</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5897</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16665</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14745</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9161</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22712</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -4959,22 +4959,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>323464</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>323464</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>323464</t>
+          <t>195436</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4994,22 +4994,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>256087</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>256087</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>256087</t>
+          <t>231778</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5029,22 +5029,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>739</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>579551</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>579551</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>579551</t>
+          <t>427215</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5076,107 +5076,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>438958</t>
+          <t>174731</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>393950</t>
+          <t>170278</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>462612</t>
+          <t>177386</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,3%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>81329</t>
+          <t>78871</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>71725</t>
+          <t>75170</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>86592</t>
+          <t>81116</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>520288</t>
+          <t>253602</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>475628</t>
+          <t>248080</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>552276</t>
+          <t>257336</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>91,27%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>97,97%</t>
         </is>
       </c>
     </row>
@@ -5189,107 +5189,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26446</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7834</t>
+          <t>2076</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62470</t>
+          <t>8539</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11456</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>1204</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20759</t>
+          <t>7150</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>37902</t>
+          <t>7751</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>13748</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>72614</t>
+          <t>12824</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -5302,107 +5302,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7540</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19933</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4318</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8298</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>11858</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>334</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>24941</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -5415,22 +5415,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>472944</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>472944</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>472944</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5450,22 +5450,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97103</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97103</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97103</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>570047</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>570047</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>570047</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5532,107 +5532,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>476055</t>
+          <t>294355</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>458422</t>
+          <t>288556</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>491418</t>
+          <t>299215</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>533</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>581951</t>
+          <t>303113</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>550249</t>
+          <t>297163</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>615631</t>
+          <t>307634</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,58%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1058006</t>
+          <t>597469</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1027046</t>
+          <t>589424</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1109260</t>
+          <t>604290</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>97,34%</t>
         </is>
       </c>
     </row>
@@ -5645,107 +5645,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49365</t>
+          <t>10174</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35270</t>
+          <t>5659</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66795</t>
+          <t>16056</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40390</t>
+          <t>12171</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14269</t>
+          <t>7679</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65117</t>
+          <t>18058</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>89755</t>
+          <t>22345</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>48141</t>
+          <t>15485</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>117270</t>
+          <t>30363</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -5758,107 +5758,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7005</t>
+          <t>530</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15075</t>
+          <t>2721</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13182</t>
+          <t>439</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3937</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>24175</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>20187</t>
+          <t>970</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>10398</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>30771</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -5871,22 +5871,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>575</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>532426</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>532426</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>532426</t>
+          <t>305059</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5906,22 +5906,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>635523</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>635523</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>635523</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5941,22 +5941,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1167949</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1167949</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1167949</t>
+          <t>620783</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5988,107 +5988,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>182155</t>
+          <t>146219</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>168835</t>
+          <t>142019</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>191220</t>
+          <t>148352</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>86,24%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>255</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>366240</t>
+          <t>147182</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>348050</t>
+          <t>140594</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>388204</t>
+          <t>150672</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,02%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>548395</t>
+          <t>293400</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>526249</t>
+          <t>286747</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>575641</t>
+          <t>297936</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>97,75%</t>
         </is>
       </c>
     </row>
@@ -6101,107 +6101,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20613</t>
+          <t>4066</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12798</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>31987</t>
+          <t>8266</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45162</t>
+          <t>5832</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>27006</t>
+          <t>2692</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62106</t>
+          <t>11640</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>65775</t>
+          <t>9898</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>43668</t>
+          <t>5630</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>84945</t>
+          <t>15924</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -6214,107 +6214,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8454</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15740</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9477</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4389</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>15442</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>17931</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10427</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>27284</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -6327,22 +6327,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6362,22 +6362,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>420879</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>420879</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>420879</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6397,22 +6397,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>632101</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>632101</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>632101</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6444,107 +6444,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>147726</t>
+          <t>8205</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>130837</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>156737</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>433656</t>
+          <t>10645</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>416901</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>446350</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>581382</t>
+          <t>18850</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>558095</t>
+          <t>16103</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>597988</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>89,51%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>80,51%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6557,107 +6557,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5810</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>17006</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>41863</t>
+          <t>757</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>30665</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>55772</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>47674</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>35162</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>63538</t>
+          <t>3898</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -6670,107 +6670,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8277</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25416</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>12185</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>6105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22454</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>20462</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>10476</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>39136</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -6783,22 +6783,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>161814</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>161814</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>161814</t>
+          <t>8599</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6818,22 +6818,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>487704</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>487704</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>487704</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6853,22 +6853,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>649518</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>649518</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>649518</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6900,107 +6900,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1851787</t>
+          <t>1095963</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1807955</t>
+          <t>1084577</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1922275</t>
+          <t>1105307</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>87,54%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,07%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1935842</t>
+          <t>1028686</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1897226</t>
+          <t>1017853</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2006940</t>
+          <t>1038522</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>88,25%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>86,49%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>4177</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3787629</t>
+          <t>2124650</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3721263</t>
+          <t>2110584</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3878454</t>
+          <t>2139966</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>96,94%</t>
         </is>
       </c>
     </row>
@@ -7013,107 +7013,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>165248</t>
+          <t>37091</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>112901</t>
+          <t>28511</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>204616</t>
+          <t>49280</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>200389</t>
+          <t>41035</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>146609</t>
+          <t>31469</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>233219</t>
+          <t>52149</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>137</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>365637</t>
+          <t>78125</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>296440</t>
+          <t>64117</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>425638</t>
+          <t>92304</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>4,18%</t>
         </is>
       </c>
     </row>
@@ -7126,107 +7126,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>48355</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>31775</t>
+          <t>426</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>70006</t>
+          <t>4797</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>57307</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>38465</t>
+          <t>984</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>71424</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>105662</t>
+          <t>4817</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>81646</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>131876</t>
+          <t>9201</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -7239,22 +7239,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2065390</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2065390</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2065390</t>
+          <t>1134902</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7274,22 +7274,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2936</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2193538</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2193538</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2193538</t>
+          <t>1072689</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7309,22 +7309,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4258928</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4258928</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4258928</t>
+          <t>2207592</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -7413,7 +7413,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
+          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7598,107 +7598,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>793</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>287706</t>
+          <t>155314</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>282266</t>
+          <t>151729</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>290900</t>
+          <t>158074</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>94,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>811</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>263368</t>
+          <t>163689</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>256821</t>
+          <t>160295</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>268550</t>
+          <t>166308</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>551074</t>
+          <t>319003</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>542665</t>
+          <t>314275</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>557839</t>
+          <t>323227</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>94,06%</t>
         </is>
       </c>
     </row>
@@ -7711,107 +7711,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7466</t>
+          <t>9501</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>7212</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12906</t>
+          <t>12870</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12556</t>
+          <t>10507</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7588</t>
+          <t>8112</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18865</t>
+          <t>13792</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>20022</t>
+          <t>20008</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13269</t>
+          <t>16145</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>28315</t>
+          <t>24630</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>7,17%</t>
         </is>
       </c>
     </row>
@@ -7824,107 +7824,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2684</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1502</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4537</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>931</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>6924</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>2,01%</t>
         </is>
       </c>
     </row>
@@ -7937,22 +7937,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -7972,22 +7972,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -8007,22 +8007,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -8054,107 +8054,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>184746</t>
+          <t>84700</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>178750</t>
+          <t>81573</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>188816</t>
+          <t>86994</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>630</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>225509</t>
+          <t>117342</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>220435</t>
+          <t>114397</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>228438</t>
+          <t>119658</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>410256</t>
+          <t>202042</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>402615</t>
+          <t>197643</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>415606</t>
+          <t>205102</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>93,88%</t>
         </is>
       </c>
     </row>
@@ -8167,107 +8167,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10690</t>
+          <t>7398</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6620</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16686</t>
+          <t>10507</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3340</t>
+          <t>4954</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11343</t>
+          <t>9754</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>16959</t>
+          <t>14428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11609</t>
+          <t>11494</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>24600</t>
+          <t>18744</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,58%</t>
         </is>
       </c>
     </row>
@@ -8280,107 +8280,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>784</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>208</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2069</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>538</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2682</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,68%</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195436</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -8428,22 +8428,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>231778</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -8463,22 +8463,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427215</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -8510,107 +8510,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>859</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>174731</t>
+          <t>145548</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>170278</t>
+          <t>142201</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>177386</t>
+          <t>148124</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>339</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>78871</t>
+          <t>56515</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>75170</t>
+          <t>54592</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81116</t>
+          <t>58147</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>253602</t>
+          <t>202063</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>248080</t>
+          <t>198376</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>257336</t>
+          <t>205358</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>93,96%</t>
         </is>
       </c>
     </row>
@@ -8623,107 +8623,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4302</t>
+          <t>8802</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>6375</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8539</t>
+          <t>11816</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>3763</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1204</t>
+          <t>2263</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7150</t>
+          <t>5497</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>7751</t>
+          <t>12565</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4310</t>
+          <t>9716</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12824</t>
+          <t>15829</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>7,24%</t>
         </is>
       </c>
     </row>
@@ -8736,107 +8736,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>2828</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>458</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -8849,22 +8849,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -8884,22 +8884,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8919,22 +8919,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8966,107 +8966,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>942</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>294355</t>
+          <t>163947</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>288556</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>299215</t>
+          <t>166321</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>975</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>303113</t>
+          <t>176003</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>297163</t>
+          <t>172647</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>307634</t>
+          <t>178594</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>597469</t>
+          <t>339951</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>589424</t>
+          <t>335615</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>604290</t>
+          <t>343638</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>94,54%</t>
         </is>
       </c>
     </row>
@@ -9079,107 +9079,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10174</t>
+          <t>9469</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16056</t>
+          <t>12110</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12171</t>
+          <t>10044</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7679</t>
+          <t>7785</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>18058</t>
+          <t>13151</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>119</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>22345</t>
+          <t>19513</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>15485</t>
+          <t>15927</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>30363</t>
+          <t>23223</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -9192,107 +9192,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>671</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2621</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>5999</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -9305,22 +9305,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>305059</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -9340,22 +9340,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -9375,22 +9375,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>620783</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -9422,107 +9422,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>417</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>146219</t>
+          <t>71302</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>142019</t>
+          <t>69007</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>148352</t>
+          <t>73273</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>97,29%</t>
+          <t>91,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>147182</t>
+          <t>115255</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>140594</t>
+          <t>112303</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>150672</t>
+          <t>117421</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>90,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>293400</t>
+          <t>186556</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>286747</t>
+          <t>182947</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>297936</t>
+          <t>189522</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>94,05%</t>
         </is>
       </c>
     </row>
@@ -9535,107 +9535,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4066</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>3604</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8266</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5832</t>
+          <t>6875</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2692</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11640</t>
+          <t>9863</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>9898</t>
+          <t>12387</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>9497</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>15924</t>
+          <t>15685</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,78%</t>
         </is>
       </c>
     </row>
@@ -9648,107 +9648,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>693</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>237</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>3180</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>2566</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -9761,22 +9761,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -9796,22 +9796,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -9831,22 +9831,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -9878,107 +9878,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>254</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8205</t>
+          <t>47508</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>45283</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>49006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10645</t>
+          <t>113946</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>110731</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>116278</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>914</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>18850</t>
+          <t>161455</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>16103</t>
+          <t>157619</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>164190</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -9991,107 +9991,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2240</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>6468</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>10205</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7414</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3898</t>
+          <t>13611</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -10139,72 +10139,72 @@
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>424</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>446</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -10217,22 +10217,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8599</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -10252,22 +10252,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -10287,22 +10287,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -10334,107 +10334,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>3717</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1095963</t>
+          <t>668321</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1084577</t>
+          <t>661611</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1105307</t>
+          <t>674619</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>4109</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1028686</t>
+          <t>742749</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1017853</t>
+          <t>735276</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1038522</t>
+          <t>748776</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>7826</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>2124650</t>
+          <t>1411070</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>2110584</t>
+          <t>1401958</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>2139966</t>
+          <t>1419700</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>93,5%</t>
         </is>
       </c>
     </row>
@@ -10447,107 +10447,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>37091</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>28511</t>
+          <t>38467</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>49280</t>
+          <t>50929</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>251</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>41035</t>
+          <t>44686</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>31469</t>
+          <t>39172</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>52149</t>
+          <t>51763</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>495</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>78125</t>
+          <t>89107</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>64117</t>
+          <t>81118</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>92304</t>
+          <t>97251</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -10560,107 +10560,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>8665</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>6281</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4797</t>
+          <t>11347</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>9496</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>7241</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>12589</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>105</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>4817</t>
+          <t>18161</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>14654</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>9201</t>
+          <t>22156</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>1,46%</t>
         </is>
       </c>
     </row>
@@ -10673,22 +10673,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1134902</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -10708,22 +10708,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1072689</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -10743,22 +10743,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2207592</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
